--- a/posts/2020-2-算法刷题回顾/leetcode.xlsx
+++ b/posts/2020-2-算法刷题回顾/leetcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BestTools\github desk\dwHou.github.io\posts\2020-2-算法刷题回顾\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B68A6AD-20E8-4A01-B9C4-B763CAF62013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87017E13-0D88-4529-91F8-933614F028F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7245" yWindow="2985" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Date1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,13 +76,266 @@
   </si>
   <si>
     <t>Meddium</t>
+  </si>
+  <si>
+    <t>dp题目特点：1.计数 2.求最值 3.求存在性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC322 Coin Change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零钱兑换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complexity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(dp算法): O(n*m) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dp步骤：  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.确定状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+根据两个思想：①最后一步 ②子问题
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f(X)=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如:最少用多少枚硬币拼出X，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">为问题规模 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f[X]或写为dp[i],</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">我们用方括号。圆括号往下做就成了对函数的递归。而dp我们会开辟一个数组。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2.转移方程
+dp[i] = min{dp[i-2]+1,dp[i-5]+1,dp[i-7]+1}
+3.初始条件&amp;边界情况
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(以下f视为dp)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+两个问题，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">X-2/5/7小于0怎么办? 什么时候停下来？
+边界情况：f[-1] = f[-2] = … .= 正无穷
+初始条件：f[0] = 0
+用转移方程算不出来，需要手工定义，即初始条件。如f[1]可用转移方程算出正无穷，但f[0]不能，它等于0，与转移方程的结果矛盾。
+不要数组越界，就是考虑边界情况。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.计算顺序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+一般按从小到大。
+比如这里，计算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f[X]时，f[X-2]、f[X-5]、f[X-7]应该都已经得到结果了，它们在for循环里趟次靠前。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(Alt+Enter单元内换行)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+  </si>
+  <si>
+    <t>DS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>双指针</t>
+  </si>
+  <si>
+    <t>中心线枚举(双指针)；动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +345,46 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -124,10 +417,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -408,21 +712,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="31.25" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="10" max="10" width="34.125" customWidth="1"/>
-    <col min="11" max="11" width="29.375" customWidth="1"/>
+    <col min="10" max="10" width="34.125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="5.5" style="6" customWidth="1"/>
+    <col min="12" max="12" width="29.375" customWidth="1"/>
+    <col min="13" max="13" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,14 +754,23 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43867</v>
       </c>
@@ -465,15 +780,68 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
       <c r="G2" t="s">
         <v>12</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>43868</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{3AA2894F-884A-419B-BE01-7145396C1457}">
       <formula1>"Easy,Meddium,Hard"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{DE8EA803-399F-4187-A352-594F7AFCA077}">
+      <formula1>"双指针,排序,贪心思想,二分查找,分治,搜索,动态规划,数学"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576" xr:uid="{08CA0A24-695D-4D91-A6D4-ADBEB8ADDCF1}">
+      <formula1>"-,链表,树,栈和队列,哈希表,字符串,数组与矩阵,图,位运算"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/posts/2020-2-算法刷题回顾/leetcode.xlsx
+++ b/posts/2020-2-算法刷题回顾/leetcode.xlsx
@@ -8,24 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BestTools\github desk\dwHou.github.io\posts\2020-2-算法刷题回顾\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87017E13-0D88-4529-91F8-933614F028F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C02D0A1-9DD9-43C9-9568-1263139BD41B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="156">
   <si>
     <t>Date1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LC5  Longest Palindromic Substring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最长回文子串</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,14 +80,6 @@
     <t>Meddium</t>
   </si>
   <si>
-    <t>dp题目特点：1.计数 2.求最值 3.求存在性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LC322 Coin Change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>零钱兑换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,7 +92,473 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+  </si>
+  <si>
+    <t>DS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>双指针</t>
+  </si>
+  <si>
+    <t>中心线枚举(双指针)；动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp题目特点：1.计数 2.求最值 3.求存在性
+这道题方法①双指针②动态规划(区间型)
+在循环时，先循环区间长度。计算顺序就满足了循环趟次靠前的依赖时已经存有结果。
+此题双指针time是67%，动规time是30%。。应该都属于O(N^2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均为O(N^2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无重复字符的最长子串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同向双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>优步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用到集合set。.add() .remove()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 忘记循环后unique_chars.remove(s[i])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长公共前缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>直接模拟比较即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串的排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串加双指针组成滑动窗口是常规的解题手段。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 逻辑错误
+右指针先动，当达到窗口大小要求时，左右指针同时动形成滑动窗口。
+更巧妙的是，
+for i,end in enumerate(s2)
+i-len(s1)可以作为左指针，end作为右指针。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简化路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构</t>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复原IP地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节跳动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfs，递归，回溯法
+如果面试官不特别要求，dfs都可以用递归的方式来实现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(答案个数*构造每个答案的时间)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代就可以
+递归回溯 dfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用一个比较通俗的说法来解释递归和回溯：
+我们在路上走着，前面是一个多岔路口，因为我们并不知道应该走哪条路，所以我们需要尝试。尝试的过程就是一个函数。
+我们选择了一个方向，后来发现又有一个多岔路口，这时候又需要进行一次选择。所以我们需要在上一次尝试结果的基础上，再做一次尝试，即在函数内部再调用一次函数，这就是递归的过程。
+这样重复了若干次之后，发现这次选择的这条路走不通，这时候我们知道我们上一个路口选错了，所以我们要回到上一个路口重新选择其他路，这就是回溯的思想。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">令狐冲：碰到让你找所有方案的题， 基本可以确定是 DFS。
+找所有方案的题目能不能用BFS呢？
+也是可以的，把找路径改为找点。(隐式图)
+dfs和bfs的区别在于耗费的空间是不一样的。比如搜索一棵树，dfs占用是层级n，可以不断pop掉。而bfs的占用是同层节点2^n。
+所以早先，bfs是没那么popular的。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>递归三要素：
+①定义
+②拆解
+③出口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 空栈不能弹，加一句判断：
+if len(stack):
+stack.pop()
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.pop()
+list.append()
+都是在列表末尾
+list.pop()可以形成栈，
+list.pop(0)
+可以形成队列。
+这里我只设法利用列表实现了队列和栈最基本的操作：push/pop，enqueue/dequeue
+还有path.split('/')
+'/'.join(stack)的使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 dfs同样是#定义#出口#拆解
+来完成递归的深度优先搜索实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三数之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两数之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微软，脸书，字节跳动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微软，亚麻，脸书，彭博，字节跳动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相向双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>背向/相向/同向双指针</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+先排序，第一个数枚举，剩下相向双指针
+①若和小了，就单方面右移</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>指针，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>②若和大了，就单方面左移</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>指针，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>③和等了，就纳入彀中（），并且同时右移左指针和左移右指针；，，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧用字典。 Python里hashset就是set，hashmap就是dict。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2 两个坑，
+第一个数重复的记得continue
+跳过循环。后面相向指针重复的也记得跳着走过。
+避免重复的答案，不是在重复发生后判断剔除，而是在答案搜索时跳过重复可能发生的情况。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC611. Valid Triangle Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC1. 2Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC15. 3Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC78. Subsets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC71. Simplify Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC567. Permutation in String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LC14. Longest Common Prefix  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LC3. Longest Substring Without Repeating Characters </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC322. Coin Change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC5.  Longest Palindromic Substring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效三角形的个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC93. Restore IP Addresses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定住最长边。for循环range(length,1,-1)倒着来。range还是[length,1)左闭右开。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K-Sum就需要使用DFS了。因为不知道到底几个数之和。
+Dfs就是帮助实现不知道几重循环的多重循环。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC695. Max Area of Island</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+  </si>
+  <si>
+    <t>岛屿的最大面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfs
+递归就是当多重循环层数不确定的时候
+一个更优雅的实现多重循环的方式
+这题务必记得，搜过的点把1置为0免得重复计数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfs确实值得多写写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC33. Search in Rotated Sorted Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭博，微软，优步，脸书，领英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找</t>
+  </si>
+  <si>
+    <t>要求O(logn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找，还是用left + 1 &lt; right来做循环判断吧。
+这样方便最后if时梳理出循环时left、right（即left + 1 = right）紧邻的情况。最多就两if呗，但条理清楚了很多。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索旋转排序数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 ①经验教训呀，
+这道题因为最后输出的是原数组的索引。你别自作主张把binary_search子问题的参数设置为子数组了。返回值索引对不上。
+还不如就传两指针。何必画蛇添足，把它们平移到0、sub_length。
+②旋转排序数组的哪一部分里，老老实实用&lt;= &lt;=锁定。别只跟nums[0]比。遇到旋转点就在开头的特殊情况，再去0~min_index-1里找。结果min_index-1&lt;0就逻辑出错了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC674. Longest Continuous Increasing Subsequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长连续递增序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC300. Longest Increasing Subsequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长上升子序列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -204,6 +664,30 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">我们用方括号。圆括号往下做就成了对函数的递归。而dp我们会开辟一个数组。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开辟数组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">时，
+s1 = [1]*5
+s2 = [1 for i in range(5)]是一个效果。
 </t>
     </r>
     <r>
@@ -306,28 +790,356 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包问题</t>
+    <t xml:space="preserve">1 return -1 if dp[amount]==MAX else dp[amount]    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对了，对于数组，要习惯用
+for i, val in enumerate(list)
+尤其是考虑到可能索引和值都要用到。即使不用到，只用其一，也不亏，大不了再改为in range或in list。不改也没事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(n2) 解法：
+Dp[i] 表示以第i个数字为结尾的最长上升子序列的长度。
+对于每个数字，枚举前面所有小于自己的数字 j，Dp[i] = max{Dp[j]} + 1. 如果没有比自己小的，Dp[i] = 1;
+O(nlogn)解法：
+使用一个辅助空间B数组。
+B[i]存储Dp值为i的最小的数字。（有多个位置，以这些位置为结尾的LIS长度都为i， 则这些数字中最小的一个存在B[i]中）
+则B数组严格递增。且下标表示LIS长度，也是严格递增，可以在B数组中进行二分查找。
+对于每个位置i，我们要找，所有小于A[i], 且Dp值最大的那个。这个操作在B数组中二分查找。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(n2)，*O(nlogn) 我还没实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC547. Friend Circles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朋友圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最短路径
+简单图 → BFS
+复杂图 → Dijkstra, SPFA, Floyd（一般面试不考这个）
+最长路径
+图可以分层 → Dynamic Programming
+分层： 比如走到第i一定会经过第 i-1 层（棋盘格子图是典型的例子）
+不可以分层 → DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BFS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的两个使用条件：
+• 图的遍历（由点及面， 层级遍历）
+• 简单图最短路径
+能用 BFS 的一定不要用 DFS（除非面试官特别要求）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC42. Trapping Rain Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接雨水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>时间复杂度O(n)，空间复杂度O(n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 老问题，一开始
+记得异常检测。
+If not heights</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>动态规划</t>
-  </si>
-  <si>
-    <t>DS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这题对于左侧最高，扫描一遍用模拟比较法就可以了，也可以通过dp来做，也可以通过相向双指针(但这要换一点点思路)来做。我自己选用的是dp。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>要每个索引位置来看待这个问题。这才是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>计算机思维。
+每个位置上的盛水数目 =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> min(左侧最高，右侧最高) - 当前高度
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>list(reversed(s))也可用s[::-1]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>双指针</t>
-  </si>
-  <si>
-    <t>中心线枚举(双指针)；动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC21. Merge Two Sorted Lists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并两个有序链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l还是l.next要判断清楚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果，微软，亚麻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC206. Reverse Linked List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一大票公司面过，推特
+Zenefits
+雅虎
+Yelp
+苹果
+Bloomberg
+微软
+Snapchat
+亚马逊
+Adobe
+优步
+脸书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将可能丢失的head.next用tmp保存着周转。然后放心大胆去按本意弄。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC2. Add Two Numbers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表求和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱彼迎，奥多比，彭博，亚麻，微软，Cracking The Coding Interview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">想不清楚循环判断条件，或者条件复杂。可以while True，然后再break出来。
+而且可以在l1或l2其一到None时，继续完成另一个与进位的循环。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 新建一个节点存储答案
+          ptr.next = ListNode(0)
+            </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC23. Merge k Sorted Lists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并k个排序链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记得一点，
+None不是ListNode。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两两调用LC21。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC236. Lowest Common Ancestor of a Binary Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近公共祖先LCA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归。 Left或right按同一个变量一路反传上来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC103. Binary Tree Zigzag Level Order Traversal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfs层序遍历，只是偶数层要reverse一下，[::-1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树的锯齿形层次遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好题，熟悉bfs模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭博，微软</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python3的是sys.maxsize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC121. Best Time to Buy and Sell Stock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心思想</t>
+  </si>
+  <si>
+    <t>买卖股票最佳时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for i in range(len(prices)):
+            low = min(prices[i], low)
+            total = max(prices[i]-low, total)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC122. Stock II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买卖股票2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心法: 只要相邻的两天股票的价格是上升的, 我们就进行一次交易, 获得一定利润.
+这样的策略不一定是最小的交易次数, 但是一定会得到最大的利润.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jiuzhang.com/solution/best-time-to-buy-and-sell-stock-iii/#tag-other-lang-python</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这哥们厉害,他的方法3、4都能做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC53. Maximum Subarray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大子序和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分治</t>
+  </si>
+  <si>
+    <t>O(n)，O(nlogn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.暴力求解，用两个变量。Tmp和maxsum。
+2.分治，最大子序和要么在左半边，要么在右半边，要么是穿过中间。
+左右是递归，中间就是各自向两边尽可能最大和。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC69. Sqrt(x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>彭博，脸书，苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分法。。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -335,7 +1147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,8 +1202,41 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,6 +1249,23 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -414,13 +1276,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="fill" wrapText="1"/>
     </xf>
@@ -432,9 +1297,47 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -712,24 +1615,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="31.25" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="10" max="10" width="34.125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="5.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.25" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="34.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="5.5" style="5" customWidth="1"/>
     <col min="12" max="12" width="29.375" customWidth="1"/>
     <col min="13" max="13" width="14.875" customWidth="1"/>
+    <col min="15" max="15" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -738,15 +1643,15 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="8"/>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -754,81 +1659,726 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>23</v>
+      <c r="K1" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="16">
+        <v>43867</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="16">
+        <v>43868</v>
+      </c>
+      <c r="B3" s="18">
+        <v>43871</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="I3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
+        <v>43869</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="D4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>43867</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0.67</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>43868</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="16">
+        <v>43869</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
+        <v>43870</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="16">
+        <v>43870</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="16">
+        <v>43870</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>43870</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>43870</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <v>43870</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="16">
+        <v>43871</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="16">
+        <v>43871</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="16">
+        <v>43871</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
+        <v>43871</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="16">
+        <v>43871</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s">
         <v>17</v>
       </c>
-      <c r="N3" t="s">
-        <v>21</v>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" t="s">
+        <v>94</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
+        <v>43872</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" t="s">
+        <v>100</v>
+      </c>
+      <c r="N17" t="s">
+        <v>97</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>43872</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
+        <v>43874</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
+        <v>43874</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
+        <v>43874</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="16">
+        <v>43874</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" t="s">
+        <v>103</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="16">
+        <v>43874</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="16">
+        <v>43874</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L24" t="s">
+        <v>135</v>
+      </c>
+      <c r="N24" t="s">
+        <v>133</v>
+      </c>
+      <c r="O24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="16">
+        <v>43874</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="16">
+        <v>43874</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E27" s="13">
+        <v>3</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="L27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="16">
+        <v>43874</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" t="s">
+        <v>148</v>
+      </c>
+      <c r="G28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="M28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="16">
+        <v>43874</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" t="s">
+        <v>153</v>
+      </c>
+      <c r="G29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="L29" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -837,14 +2387,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{3AA2894F-884A-419B-BE01-7145396C1457}">
       <formula1>"Easy,Meddium,Hard"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{DE8EA803-399F-4187-A352-594F7AFCA077}">
-      <formula1>"双指针,排序,贪心思想,二分查找,分治,搜索,动态规划,数学"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576" xr:uid="{08CA0A24-695D-4D91-A6D4-ADBEB8ADDCF1}">
       <formula1>"-,链表,树,栈和队列,哈希表,字符串,数组与矩阵,图,位运算"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{17787FFB-05F3-4781-A9D2-89A34322AF11}">
+      <formula1>"数据结构,双指针,排序,贪心思想,二分查找,分治,搜索,动态规划,数学"</formula1>
+    </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="J27" r:id="rId1" location="tag-other-lang-python" xr:uid="{22949B4F-E17B-4A08-AE5E-DA5EE48B7408}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/posts/2020-2-算法刷题回顾/leetcode.xlsx
+++ b/posts/2020-2-算法刷题回顾/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BestTools\github desk\dwHou.github.io\posts\2020-2-算法刷题回顾\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C02D0A1-9DD9-43C9-9568-1263139BD41B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85E47FC-0291-4C46-BB78-D07B4A8A2320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="217">
   <si>
     <t>Date1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,9 +75,6 @@
   <si>
     <t>Difficulty</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meddium</t>
   </si>
   <si>
     <t>零钱兑换</t>
@@ -1111,36 +1108,357 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>O(n)，O(nlogn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC69. Sqrt(x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>彭博，脸书，苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分法。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC39. Combination Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合总和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snapchat，优步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 list(某个列表)，
+是为了deepcopy。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回溯。 有的回溯，倒回上一层时，如果有状态需要复原要pop。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>分治</t>
-  </si>
-  <si>
-    <t>O(n)，O(nlogn)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.暴力求解，用两个变量。Tmp和maxsum。
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">分治、回溯的本质就是递归。或者看作复杂点的递归。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>碰到一个题目，你就找它的重复性。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+重复性有最近的重复性(分治、回溯)，
+也有所谓的最优重复性(dp)。
+1.暴力求解，用两个变量。Tmp和maxsum。
 2.分治，最大子序和要么在左半边，要么在右半边，要么是穿过中间。
 左右是递归，中间就是各自向两边尽可能最大和。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LC69. Sqrt(x)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方根</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学</t>
-  </si>
-  <si>
-    <t>彭博，脸书，苹果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二分法。。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛型递归：
+①终止条件
+②处理当前层逻辑
+③下探到下一层
+(④恢复当前层状态)
+分治、回溯、递归、动规
+本质：寻找重复性
+只是动规只需存储子问题中最优的那个。
+共性：寻找重复子问题。
+差异性：最优子结构，中途可以淘汰次优解。没有这个淘汰就是叫分治，有淘汰就叫动规。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC160. Intersection of Two Linked Lists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相交链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_node = set([])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭博，微软，爱彼迎，亚麻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LC862. Shortest Subarray with Sum at Least K   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和至少为 K 的最短子数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deque维护一个前缀和。再使用滑动窗口。窗口大小即为子数组长度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LC4. Median of Two Sorted Arrays   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我用内置函数sort解决的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LC6. ZigZag Conversion    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">字符串 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LC10. Regular Expression Matching    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正则表达式匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推特，优步，爱彼迎，谷歌，脸书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LC11. Container With Most Water  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相向双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学会分解问题，分几种情况。哪个指针该动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LC17. Letter Combinations of a Phone Number </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码的字母组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌，优步，脸书，亚麻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想清楚dfs需要传入哪些参数。#定义 #出口(对结果的影响以及return) #拆解(下探到下一层)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dfs，回溯法 找组合、方案
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LC19. Remove Nth Node From End of List    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除链表倒数第n个节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表，快慢指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表 要求一遍扫描找到倒数第n个。
+一根指针是不够的！快慢指针。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 res = ListNode(0)
+        res.next = head
+最后return res.next而不是head
+因为边界情况是头节点要删掉的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LC20. Valid Parentheses  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效的括号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推特，Zenefits，谷歌，脸书，优步，亚麻，微软，彭博，爱彼迎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for ch in s: 这样更简洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 ch == '(' 
+or ch == '['
+不能偷懒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LC22. Generate Parentheses </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>括号生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优步，谷歌，Zenefits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记得dfs template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LC31. Next Permutation   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一个排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meddium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LC34. Find First and Last Position of Element in Sorted Array  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在排序数组中查找元素的第一个和最后一个位置</t>
+  </si>
+  <si>
+    <t>LC46. Permutations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脸书，微软</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfs的参数还是不传
+results的好，用self.results改变比较稳妥。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>切片是浅拷贝。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self.results.append(arr[:])
+一定要用arr[:]而不单单是
+arr。因为arr是一直变化的，
+你要传进来的是它的拷贝！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfs LC22这种题，一直生成下去不管了。
+而LC46这种题恢复当前层状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LC48. Rotate Image  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转图像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微软，苹果，亚麻，Cracking The Coding Interview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任何方阵旋转，都可以看作转置之后再翻转。转置和翻转都是可以原地实现的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1554,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1266,6 +1584,12 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1283,7 +1607,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1331,6 +1655,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="fill" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1615,10 +1942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1630,6 +1957,7 @@
     <col min="11" max="11" width="5.5" style="5" customWidth="1"/>
     <col min="12" max="12" width="29.375" customWidth="1"/>
     <col min="13" max="13" width="14.875" customWidth="1"/>
+    <col min="14" max="14" width="14.25" customWidth="1"/>
     <col min="15" max="15" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1663,16 +1991,16 @@
         <v>7</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -1680,28 +2008,28 @@
         <v>43867</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="H2" s="6">
         <v>0.67</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1713,67 +2041,67 @@
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="H3" s="4">
         <v>0.32900000000000001</v>
       </c>
       <c r="I3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>43869</v>
       </c>
       <c r="B4" s="18"/>
-      <c r="D4" s="5" t="s">
-        <v>67</v>
+      <c r="D4" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>216</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" t="s">
         <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1781,45 +2109,45 @@
         <v>43869</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
         <v>37</v>
       </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>43870</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" t="s">
+        <v>216</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -1827,28 +2155,28 @@
         <v>43870</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>216</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" t="s">
         <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -1856,30 +2184,30 @@
         <v>43870</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="10"/>
       <c r="M8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1887,22 +2215,22 @@
         <v>43870</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -1910,55 +2238,58 @@
         <v>43870</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" t="s">
         <v>55</v>
       </c>
-      <c r="N10" t="s">
-        <v>56</v>
-      </c>
       <c r="O10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>43870</v>
       </c>
+      <c r="B11" s="18">
+        <v>43879</v>
+      </c>
       <c r="D11" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" t="s">
         <v>52</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1966,22 +2297,22 @@
         <v>43871</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="H12" s="6">
         <v>0.9</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1989,22 +2320,22 @@
         <v>43871</v>
       </c>
       <c r="D13" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="G13" t="s">
+        <v>216</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="2" t="s">
+      <c r="N13" t="s">
         <v>77</v>
-      </c>
-      <c r="N13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -2012,31 +2343,31 @@
         <v>43871</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="H14" s="6">
         <v>0.8</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -2044,13 +2375,13 @@
         <v>43871</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -2058,25 +2389,25 @@
         <v>43871</v>
       </c>
       <c r="D16" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="J16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M16" t="s">
         <v>93</v>
       </c>
-      <c r="M16" t="s">
-        <v>94</v>
-      </c>
       <c r="N16" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -2084,28 +2415,28 @@
         <v>43872</v>
       </c>
       <c r="D17" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" t="s">
+        <v>216</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" t="s">
+        <v>99</v>
+      </c>
+      <c r="N17" t="s">
         <v>96</v>
       </c>
-      <c r="F17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="L17" t="s">
-        <v>100</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="O17" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -2113,28 +2444,28 @@
         <v>43872</v>
       </c>
       <c r="D18" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="F18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" t="s">
         <v>102</v>
       </c>
-      <c r="F18" t="s">
+      <c r="I18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="N18" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="G18" t="s">
-        <v>103</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -2142,48 +2473,51 @@
         <v>43874</v>
       </c>
       <c r="D19" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J19" s="5" t="s">
+      <c r="L19" t="s">
         <v>112</v>
-      </c>
-      <c r="L19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>43874</v>
       </c>
+      <c r="B20" s="18">
+        <v>43879</v>
+      </c>
       <c r="D20" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="F20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -2191,25 +2525,25 @@
         <v>43874</v>
       </c>
       <c r="D21" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>216</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L21" t="s">
         <v>119</v>
-      </c>
-      <c r="F21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="L21" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -2217,19 +2551,19 @@
         <v>43874</v>
       </c>
       <c r="D22" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>124</v>
-      </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -2237,19 +2571,19 @@
         <v>43874</v>
       </c>
       <c r="D23" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>216</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="F23" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -2257,28 +2591,28 @@
         <v>43874</v>
       </c>
       <c r="D24" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" t="s">
+        <v>216</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="L24" t="s">
+        <v>134</v>
+      </c>
+      <c r="N24" t="s">
         <v>132</v>
       </c>
-      <c r="F24" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L24" t="s">
-        <v>135</v>
-      </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>133</v>
-      </c>
-      <c r="O24" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -2286,22 +2620,22 @@
         <v>43874</v>
       </c>
       <c r="D25" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" t="s">
         <v>137</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F25" t="s">
-        <v>138</v>
-      </c>
-      <c r="G25" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="O25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -2309,19 +2643,19 @@
         <v>43874</v>
       </c>
       <c r="D26" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="F26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="F26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G26" t="s">
-        <v>30</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -2329,10 +2663,10 @@
         <v>3</v>
       </c>
       <c r="J27" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="L27" t="s">
         <v>144</v>
-      </c>
-      <c r="L27" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -2340,22 +2674,25 @@
         <v>43874</v>
       </c>
       <c r="D28" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="F28" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="M28" t="s">
         <v>147</v>
       </c>
-      <c r="F28" t="s">
-        <v>148</v>
-      </c>
-      <c r="G28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="M28" t="s">
-        <v>149</v>
+      <c r="O28" s="14" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -2363,35 +2700,359 @@
         <v>43874</v>
       </c>
       <c r="D29" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" t="s">
+        <v>150</v>
+      </c>
+      <c r="G29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="L29" t="s">
         <v>151</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F29" t="s">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="16">
+        <v>43875</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="G29" t="s">
-        <v>30</v>
-      </c>
-      <c r="J29" s="5" t="s">
+      <c r="E30" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" t="s">
+        <v>216</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L30" t="s">
         <v>155</v>
       </c>
-      <c r="L29" t="s">
-        <v>154</v>
+      <c r="N30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="16">
+        <v>43879</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D32" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" t="s">
+        <v>102</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="16">
+        <v>43879</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="G33" t="s">
+        <v>102</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="16">
+        <v>43879</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" t="s">
+        <v>216</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G35" t="s">
+        <v>102</v>
+      </c>
+      <c r="L35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="16">
+        <v>43879</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" t="s">
+        <v>216</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="N36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="16">
+        <v>43880</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F37" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" t="s">
+        <v>216</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L37" t="s">
+        <v>182</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="16">
+        <v>43880</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" t="s">
+        <v>216</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="16">
+        <v>43880</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="N39" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="16">
+        <v>43880</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F40" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" t="s">
+        <v>216</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="L40" t="s">
+        <v>198</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G41" t="s">
+        <v>216</v>
+      </c>
+      <c r="L41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D42" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F42" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="16">
+        <v>43880</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F43" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" t="s">
+        <v>216</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="L43" t="s">
+        <v>208</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="16">
+        <v>43880</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G44" t="s">
+        <v>216</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L44" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{3AA2894F-884A-419B-BE01-7145396C1457}">
-      <formula1>"Easy,Meddium,Hard"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576" xr:uid="{08CA0A24-695D-4D91-A6D4-ADBEB8ADDCF1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K30 K31:K1048576" xr:uid="{08CA0A24-695D-4D91-A6D4-ADBEB8ADDCF1}">
       <formula1>"-,链表,树,栈和队列,哈希表,字符串,数组与矩阵,图,位运算"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{17787FFB-05F3-4781-A9D2-89A34322AF11}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F30 F31:F1048576" xr:uid="{17787FFB-05F3-4781-A9D2-89A34322AF11}">
       <formula1>"数据结构,双指针,排序,贪心思想,二分查找,分治,搜索,动态规划,数学"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{84A3AF16-C4A7-4E5A-BF29-D9A3039B4936}">
+      <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
